--- a/Informatyka_RadchenkoOleh211352.xlsx
+++ b/Informatyka_RadchenkoOleh211352.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\PG\hih + wai\HiH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10E9EF2-7154-4D15-B6E5-B51006B5B06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB79584-7896-4963-B29E-9C4AEA118335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 projekt" sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>o   przynajmniej 7 pól do wprowadzania danych</t>
   </si>
@@ -237,9 +237,6 @@
     <t>w kolumnie "realizacja" wartość 1 oznacza wykonanie całego punktu, wartość 0 oznacza brak realizacji danego punktu. Możliwe są wartości z przedziału &lt;0,1&gt;</t>
   </si>
   <si>
-    <t>Tutaj wpisać: Imię, nazwisko, nr indeksu</t>
-  </si>
-  <si>
     <t>walidacja css</t>
   </si>
   <si>
@@ -285,10 +282,7 @@
     <t>brak linków (w XML (min 4) oraz w Schema)  (-0,5pkt)</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>Tutaj wpisać: Oleh, Radchenko, 211352</t>
   </si>
 </sst>
 </file>
@@ -789,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -806,7 +800,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>66</v>
@@ -841,7 +835,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="23">
         <v>1.6</v>
@@ -856,7 +850,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="23">
         <v>1</v>
@@ -871,7 +865,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="23">
         <v>0.5</v>
@@ -901,7 +895,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="23">
         <v>0.6</v>
@@ -1097,7 +1091,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="23">
         <v>0.2</v>
@@ -1188,7 +1182,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="23">
         <v>0</v>
@@ -1231,7 +1225,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>41</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>44</v>
       </c>
@@ -1261,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>45</v>
       </c>
@@ -1276,7 +1270,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>46</v>
       </c>
@@ -1291,7 +1285,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>60</v>
       </c>
@@ -1305,13 +1299,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="23"/>
       <c r="C38" s="1"/>
       <c r="D38" s="19"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>6</v>
       </c>
@@ -1321,9 +1315,9 @@
       <c r="C39" s="1"/>
       <c r="D39" s="19"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B40" s="23">
         <v>1.6</v>
@@ -1336,9 +1330,9 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="23">
         <v>1.6</v>
@@ -1350,13 +1344,10 @@
         <f t="shared" si="5"/>
         <v>1.6</v>
       </c>
-      <c r="E41" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="23">
         <v>0.8</v>
@@ -1369,9 +1360,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="23">
         <v>0.8</v>
@@ -1384,7 +1375,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1390,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>14</v>
       </c>
@@ -1414,7 +1405,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1420,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>47</v>
       </c>
@@ -1444,7 +1435,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>34</v>
       </c>
@@ -1459,7 +1450,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>17</v>
       </c>
@@ -1485,7 +1476,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1491,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>19</v>
       </c>
@@ -1515,9 +1506,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="23">
         <v>0.6</v>
@@ -1530,9 +1521,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" s="23">
         <v>0.2</v>
@@ -1544,11 +1535,8 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>48</v>
       </c>
@@ -1562,11 +1550,8 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>35</v>
       </c>
@@ -1580,11 +1565,8 @@
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="E56" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>61</v>
       </c>
@@ -1598,7 +1580,7 @@
         <v>10.999999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
         <v>49</v>
       </c>
@@ -1606,33 +1588,37 @@
       <c r="C58" s="1"/>
       <c r="D58" s="27"/>
     </row>
-    <row r="59" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B59" s="23">
         <v>0.5</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
       <c r="D59" s="19">
         <f t="shared" ref="D59:D65" si="6">C59*B59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="23">
         <v>0.5</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
       <c r="D60" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>52</v>
       </c>
@@ -1643,56 +1629,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B62" s="23">
         <v>0.3</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
       <c r="D62" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>54</v>
       </c>
       <c r="B63" s="23">
         <v>0.3</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
       <c r="D63" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B64" s="23">
         <v>0.2</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
       <c r="D64" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65" s="23">
         <v>0.2</v>
       </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
       <c r="D65" s="19">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1706,7 +1700,7 @@
       <c r="C66" s="4"/>
       <c r="D66" s="24">
         <f>SUM(D59:D65)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1720,7 +1714,7 @@
       <c r="C67" s="9"/>
       <c r="D67" s="26">
         <f>D66+D57+D37+D28</f>
-        <v>22.999999999999993</v>
+        <v>24.999999999999993</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1801,7 +1795,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B76" s="23">
         <v>-0.5</v>
@@ -1811,7 +1805,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" s="23">
         <v>-0.5</v>
